--- a/data/trans_dic/APOYO_SOCIAL_DUKE_CONF_CAT-Clase-trans_dic.xlsx
+++ b/data/trans_dic/APOYO_SOCIAL_DUKE_CONF_CAT-Clase-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Apoyo confidencial bajo</t>
+          <t>Apoyo confidencial bajo (tasa de respuesta: 98,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1448,7 +1448,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Apoyo confidencial bajo</t>
+          <t>Apoyo confidencial bajo (tasa de respuesta: 98,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/APOYO_SOCIAL_DUKE_CONF_CAT-Clase-trans_dic.xlsx
+++ b/data/trans_dic/APOYO_SOCIAL_DUKE_CONF_CAT-Clase-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>71,58%</t>
+          <t>71,85%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>77,94%</t>
+          <t>76,99%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>74,8%</t>
+          <t>74,53%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>66,74; 75,87</t>
+          <t>66,38; 76,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>49,48; 60,07</t>
+          <t>49,71; 59,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>73,49; 81,87</t>
+          <t>72,61; 81,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>47,39; 57,42</t>
+          <t>47,09; 57,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>71,92; 77,82</t>
+          <t>71,0; 78,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>49,48; 56,96</t>
+          <t>49,72; 57,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>75,04%</t>
+          <t>77,89%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>77,73%</t>
+          <t>77,51%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>76,6%</t>
+          <t>77,69%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>68,42; 80,02</t>
+          <t>71,21; 83,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>57,68; 69,73</t>
+          <t>57,05; 69,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>73,17; 81,88</t>
+          <t>72,17; 82,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>58,81; 69,2</t>
+          <t>59,07; 69,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>72,53; 79,78</t>
+          <t>73,74; 81,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>59,69; 68,23</t>
+          <t>59,64; 67,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>76,4%</t>
+          <t>77,53%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>77,65%</t>
+          <t>78,6%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>76,76%</t>
+          <t>77,82%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>71,87; 80,14</t>
+          <t>73,0; 81,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,65; 70,19</t>
+          <t>10,46; 70,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>70,67; 83,55</t>
+          <t>71,83; 85,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>56,81; 73,36</t>
+          <t>56,42; 73,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>73,32; 79,88</t>
+          <t>73,97; 81,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,12; 68,81</t>
+          <t>13,84; 69,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>73,7%</t>
+          <t>74,1%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>80,82%</t>
+          <t>82,07%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>77,42%</t>
+          <t>78,18%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>69,28; 77,92</t>
+          <t>69,14; 78,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>63,55; 73,02</t>
+          <t>64,06; 72,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>76,93; 84,24</t>
+          <t>77,87; 85,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>60,7; 68,96</t>
+          <t>60,52; 68,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>74,17; 79,93</t>
+          <t>75,37; 81,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>63,66; 69,7</t>
+          <t>63,55; 69,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>78,35%</t>
+          <t>80,12%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>87,79%</t>
+          <t>88,67%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>84,63%</t>
+          <t>85,5%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>71,35; 83,68</t>
+          <t>73,75; 85,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>59,67; 74,33</t>
+          <t>60,05; 74,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>83,85; 91,2</t>
+          <t>84,63; 91,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>38,3; 74,75</t>
+          <t>35,63; 74,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>81,12; 87,47</t>
+          <t>82,32; 88,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>43,72; 72,08</t>
+          <t>43,0; 72,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>59,44%</t>
+          <t>63,5%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>74,27%</t>
+          <t>72,37%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>70,98%</t>
+          <t>69,89%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>48,35; 69,12</t>
+          <t>51,78; 73,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>33,42; 60,01</t>
+          <t>35,7; 61,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>69,0; 78,92</t>
+          <t>65,53; 77,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>61,14; 70,09</t>
+          <t>60,98; 69,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>66,72; 75,25</t>
+          <t>63,59; 74,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>56,42; 65,64</t>
+          <t>56,27; 65,7</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>73,82%</t>
+          <t>74,71%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>79,77%</t>
+          <t>79,45%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>77,03%</t>
+          <t>77,19%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>71,7; 75,96</t>
+          <t>72,37; 77,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>35,15; 63,71</t>
+          <t>35,51; 63,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>77,83; 81,49</t>
+          <t>77,46; 81,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>55,31; 65,44</t>
+          <t>54,79; 65,41</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>75,74; 78,4</t>
+          <t>75,58; 78,69</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>47,04; 63,45</t>
+          <t>49,21; 63,55</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>55490</t>
+          <t>125639</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>61903</t>
+          <t>146087</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>117393</t>
+          <t>271725</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>51736; 58815</t>
+          <t>116073; 134353</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>178850; 217093</t>
+          <t>179649; 216094</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>58367; 65024</t>
+          <t>137780; 154350</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>141320; 171238</t>
+          <t>140421; 170672</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>112873; 122131</t>
+          <t>258867; 284511</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>326357; 375705</t>
+          <t>327985; 377542</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>33908</t>
+          <t>80929</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>48700</t>
+          <t>94010</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>82608</t>
+          <t>174939</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1818,12 +1818,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>30918; 36158</t>
+          <t>73984; 86252</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>185909; 224767</t>
+          <t>183904; 224984</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1833,12 +1833,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>45841; 51300</t>
+          <t>87528; 99854</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>151947; 178783</t>
+          <t>152613; 179007</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>78215; 86036</t>
+          <t>166058; 182769</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>346635; 396213</t>
+          <t>346313; 392363</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>63053</t>
+          <t>117627</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26183</t>
+          <t>42740</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>89235</t>
+          <t>160367</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>59318; 66137</t>
+          <t>110746; 124051</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>45745; 332608</t>
+          <t>49575; 334610</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1996,12 +1996,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>23828; 28171</t>
+          <t>39059; 46349</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>54098; 69854</t>
+          <t>53725; 69520</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -2011,12 +2011,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>85234; 92860</t>
+          <t>152437; 168166</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>68959; 391563</t>
+          <t>78783; 394821</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>63558</t>
+          <t>132378</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>76250</t>
+          <t>153559</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>139808</t>
+          <t>285937</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>59748; 67201</t>
+          <t>123521; 140335</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>338501; 388988</t>
+          <t>341239; 388193</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2159,12 +2159,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>72584; 79480</t>
+          <t>145693; 160352</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>259131; 294388</t>
+          <t>258376; 292868</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -2174,12 +2174,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>133951; 144352</t>
+          <t>275657; 296379</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>610901; 668866</t>
+          <t>609798; 669484</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>28562</t>
+          <t>58509</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>63579</t>
+          <t>109758</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>92141</t>
+          <t>168267</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>26011; 30507</t>
+          <t>53852; 62479</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>124246; 154774</t>
+          <t>125046; 154315</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2322,12 +2322,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>60727; 66049</t>
+          <t>104751; 113510</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>162356; 316851</t>
+          <t>151030; 315574</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -2337,12 +2337,12 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>88319; 95230</t>
+          <t>162009; 173872</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>276347; 455651</t>
+          <t>271826; 455726</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>10297</t>
+          <t>30759</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>45178</t>
+          <t>89987</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>55475</t>
+          <t>120746</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2470,12 +2470,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8376; 11973</t>
+          <t>25084; 35810</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>54313; 97518</t>
+          <t>58022; 99258</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2485,12 +2485,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>41975; 48005</t>
+          <t>81478; 96763</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>293715; 336739</t>
+          <t>292933; 336123</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -2500,12 +2500,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>52140; 58814</t>
+          <t>109869; 129526</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>362718; 421992</t>
+          <t>361783; 422377</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>254868</t>
+          <t>545842</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>321793</t>
+          <t>636139</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>576660</t>
+          <t>1181981</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2633,12 +2633,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>247556; 262255</t>
+          <t>528686; 563377</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>724539; 1313051</t>
+          <t>731959; 1313783</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -2648,12 +2648,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>313973; 328723</t>
+          <t>620160; 652460</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>1096695; 1297610</t>
+          <t>1086515; 1297111</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2663,12 +2663,12 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>567057; 586973</t>
+          <t>1157291; 1204833</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1902191; 2565963</t>
+          <t>1989989; 2570172</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">

--- a/data/trans_dic/APOYO_SOCIAL_DUKE_CONF_CAT-Clase-trans_dic.xlsx
+++ b/data/trans_dic/APOYO_SOCIAL_DUKE_CONF_CAT-Clase-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>56,08%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>57,36%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>71,85%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>54,58%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>57,36%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>53,57%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>55,41%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>76,99%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>52,34%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>55,41%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>54,94%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>56,41%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>74,53%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>53,57%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>56,41%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>51,3; 61,26</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>52,61; 61,76</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>66,38; 76,84</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>49,71; 59,79</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>52,61; 61,76</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>48,68; 58,53</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>50,55; 60,06</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>72,61; 81,34</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>47,09; 57,23</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>50,55; 60,06</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>51,11; 58,4</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>52,8; 59,68</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>71,0; 78,03</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>49,72; 57,24</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>52,8; 59,68</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>65,61%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>62,79%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>77,89%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>63,89%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>62,79%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>63,44%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>60,6%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>77,51%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>64,11%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>60,6%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>64,62%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>61,61%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>77,69%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>63,99%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>61,61%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>59,19; 71,15</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>57,45; 68,09</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>71,21; 83,02</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>57,05; 69,8</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>57,45; 68,09</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>58,24; 68,61</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>55,46; 65,65</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>72,17; 82,33</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>59,07; 69,29</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>55,46; 65,65</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>60,29; 68,15</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>57,49; 64,89</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>73,74; 81,16</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>59,64; 67,57</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>57,49; 64,89</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>68,27%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>60,84%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>77,53%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>33,21%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>60,84%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>63,86%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>55,88%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>78,6%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>65,35%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>55,88%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>66,96%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>59,28%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>77,82%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>38,58%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>59,28%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>62,05; 73,86</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>54,95; 66,13</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>73,0; 81,77</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>10,46; 70,61</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>54,95; 66,13</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>55,07; 71,37</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>47,83; 64,66</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>71,83; 85,24</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>56,42; 73,01</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>47,83; 64,66</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>61,75; 71,83</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>54,72; 63,85</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>73,97; 81,6</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>13,84; 69,38</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>54,72; 63,85</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>69,67%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>61,43%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>74,1%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>68,45%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>61,43%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>66,2%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>60,07%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>82,07%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>64,65%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>60,07%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>68,13%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>60,74%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>78,18%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>66,76%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>60,74%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>65,16; 73,54</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>57,17; 65,55</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>69,14; 78,55</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>64,06; 72,87</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>57,17; 65,55</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>62,22; 69,88</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>55,11; 64,03</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>77,87; 85,7</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>60,52; 68,6</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>55,11; 64,03</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>65,21; 70,98</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>57,72; 63,7</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>75,37; 81,03</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>63,55; 69,77</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>57,72; 63,7</t>
         </is>
       </c>
     </row>
@@ -1073,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>67,99%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>62,66%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>80,12%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>67,19%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>62,66%</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>74,83%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>67,48%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>88,67%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>61,34%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>67,48%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>72,23%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>65,11%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>85,5%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>63,27%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>65,11%</t>
         </is>
       </c>
     </row>
@@ -1126,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>61,46; 74,25</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>55,8; 68,53</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>73,75; 85,56</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>60,05; 74,11</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>55,8; 68,53</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>70,92; 78,8</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>60,66; 72,93</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>84,63; 91,7</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>35,63; 74,45</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>60,66; 72,93</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>68,95; 75,84</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>60,7; 69,86</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>82,32; 88,35</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>43,0; 72,1</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>60,7; 69,86</t>
         </is>
       </c>
     </row>
@@ -1183,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>51,47%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>59,59%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>63,5%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>47,67%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>59,59%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>66,29%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>91,54%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>72,37%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>65,58%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>91,54%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>62,82%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>76,98%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>69,89%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>61,05%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>76,98%</t>
         </is>
       </c>
     </row>
@@ -1236,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>40,09; 63,85</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>30,85; 83,32</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>51,78; 73,93</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>35,7; 61,08</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>30,85; 83,32</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>61,63; 70,45</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>60,14; 100,0</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>65,53; 77,82</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>60,98; 69,97</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>60,14; 100,0</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>58,56; 67,39</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>57,86; 88,64</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>63,59; 74,97</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>56,27; 65,7</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>57,86; 88,64</t>
         </is>
       </c>
     </row>
@@ -1293,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>64,46%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>60,65%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>74,71%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>55,43%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>60,65%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>65,45%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>60,06%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>79,45%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>62,28%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>60,06%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>64,97%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>60,37%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>77,19%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>58,79%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>60,37%</t>
         </is>
       </c>
     </row>
@@ -1346,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>61,99; 66,7</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>58,38; 62,88</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>72,37; 77,11</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>35,51; 63,74</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>58,38; 62,88</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>63,56; 67,31</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>57,61; 62,27</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>77,46; 81,49</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>54,79; 65,41</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>57,61; 62,27</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>63,28; 66,49</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>58,63; 61,95</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>75,58; 78,69</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>49,21; 63,55</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>58,63; 61,95</t>
         </is>
       </c>
     </row>
@@ -1479,47 +1479,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>336</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>226</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>387</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>247</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>243</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>723</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>473</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>524</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>218776</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>168489</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>125639</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>197258</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>168489</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>175159</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>152713</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>146087</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>156080</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>152713</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>393934</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>321202</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>271725</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>353338</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>321202</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>200137; 238968</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>154552; 181443</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>116073; 134353</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>179649; 216094</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>154552; 181443</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>159146; 191375</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>139317; 165531</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>137780; 154350</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>140421; 170672</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>139317; 165531</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>366488; 418728</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>300618; 339804</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>258867; 284511</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>327985; 377542</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>300618; 339804</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>228</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>201</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>297</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>227</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>501</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>482</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>428</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>224768</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>121407</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>80929</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>205933</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>121407</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>180567</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>138237</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>94010</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>165619</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>138237</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>405335</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>259644</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>174939</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>371552</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>259644</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>202793; 243761</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>111086; 131653</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>73984; 86252</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>183904; 224984</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>111086; 131653</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>165759; 195273</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>126521; 149754</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>87528; 99854</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>152613; 179007</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>126521; 149754</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>378133; 427438</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>242295; 273493</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>166058; 182769</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>346313; 392363</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>242295; 273493</t>
         </is>
       </c>
     </row>
@@ -1875,47 +1875,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>371</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>198</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>156</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>527</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>285</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>278</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>175975</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>107224</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>117627</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>157349</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>107224</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>69560</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>45151</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>42740</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>62225</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>45151</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>245535</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>152374</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>160367</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>219573</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>152374</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>159922; 190383</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>96851; 116552</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>110746; 124051</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>49575; 334610</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>96851; 116552</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>59982; 77739</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>38641; 52245</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>39059; 46349</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>53725; 69520</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>38641; 52245</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>226409; 263393</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>140652; 164106</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>152437; 168166</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>78783; 394821</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>140652; 164106</t>
         </is>
       </c>
     </row>
@@ -2038,47 +2038,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>379</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>406</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>330</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>447</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>452</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>447</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>317</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>853</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>831</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>853</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>647</t>
         </is>
       </c>
     </row>
@@ -2091,47 +2091,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>422611</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>184332</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>132378</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>364614</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>184332</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>320824</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>185793</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>153559</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>275974</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>185793</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>743435</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>370125</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>285937</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>640588</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>370125</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>395261; 446115</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>171543; 196701</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>123521; 140335</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>341239; 388193</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>171543; 196701</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>301574; 338655</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>170463; 198053</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>145693; 160352</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>258376; 292868</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>170463; 198053</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>711617; 774600</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>351725; 388157</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>275657; 296379</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>609798; 669484</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>351725; 388157</t>
         </is>
       </c>
     </row>
@@ -2201,47 +2201,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>174</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>161</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>438</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>357</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>438</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>173</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>599</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>531</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>599</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>325</t>
         </is>
       </c>
     </row>
@@ -2254,47 +2254,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>168920</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>93397</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>58509</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>139902</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>93397</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>303607</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>104137</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>109758</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>260001</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>104137</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>472527</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>197534</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>168267</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>399903</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>197534</t>
         </is>
       </c>
     </row>
@@ -2307,47 +2307,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>152688; 184468</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>83169; 102148</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>53852; 62479</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>125046; 154315</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>83169; 102148</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>287739; 319701</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>93608; 112549</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>104751; 113510</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>151030; 315574</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>93608; 112549</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>451051; 496096</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>184150; 211921</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>162009; 173872</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>271826; 455726</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>184150; 211921</t>
         </is>
       </c>
     </row>
@@ -2364,47 +2364,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>65</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>479</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>270</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>479</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>335</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>523</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>24</t>
         </is>
       </c>
     </row>
@@ -2417,47 +2417,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>84923</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5570</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>30759</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>77465</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>5570</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>357294</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>10217</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
           <t>89987</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>315066</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>10217</t>
-        </is>
-      </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
+          <t>442216</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>15788</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
           <t>120746</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>392531</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>15788</t>
         </is>
       </c>
     </row>
@@ -2470,47 +2470,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>66142; 105343</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2884; 7789</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>25084; 35810</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>58022; 99258</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>2884; 7789</t>
-        </is>
-      </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
+          <t>332154; 379693</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>6712; 11161</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
           <t>81478; 96763</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>292933; 336123</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>6712; 11161</t>
-        </is>
-      </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
+          <t>412231; 474403</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>11866; 18178</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
           <t>109869; 129526</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>361783; 422377</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>11866; 18178</t>
         </is>
       </c>
     </row>
@@ -2527,47 +2527,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>1245</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1171</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>1529</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>1245</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>1171</t>
-        </is>
-      </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1055</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
           <t>1919</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>1970</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>1055</t>
-        </is>
-      </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
+          <t>3215</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>2226</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
           <t>3448</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>3215</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>2226</t>
         </is>
       </c>
     </row>
@@ -2580,47 +2580,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>1295973</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>680419</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>545842</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>1142520</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>680419</t>
-        </is>
-      </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
+          <t>1407010</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>636248</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>636139</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>1234965</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>636248</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
+          <t>2702982</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1316668</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
           <t>1181981</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>2377486</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>1316668</t>
         </is>
       </c>
     </row>
@@ -2633,47 +2633,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>1246210; 1340893</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>654948; 705344</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
           <t>528686; 563377</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>731959; 1313783</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>654948; 705344</t>
-        </is>
-      </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
+          <t>1366526; 1447130</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>610235; 659648</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
           <t>620160; 652460</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>1086515; 1297111</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>610235; 659648</t>
-        </is>
-      </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
+          <t>2632830; 2766191</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1278712; 1351132</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
           <t>1157291; 1204833</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>1989989; 2570172</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>1278712; 1351132</t>
         </is>
       </c>
     </row>
